--- a/tut05/output/0501ME18.xlsx
+++ b/tut05/output/0501ME18.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.551020408163265</v>
+        <v>6.55</v>
       </c>
       <c r="C6" t="n">
-        <v>6.681818181818182</v>
+        <v>6.68</v>
       </c>
       <c r="D6" t="n">
-        <v>7.127659574468085</v>
+        <v>7.13</v>
       </c>
       <c r="E6" t="n">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="F6" t="n">
-        <v>7.913043478260869</v>
+        <v>7.91</v>
       </c>
       <c r="G6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.551020408163265</v>
+        <v>6.55</v>
       </c>
       <c r="C8" t="n">
-        <v>6.612903225806452</v>
+        <v>6.61</v>
       </c>
       <c r="D8" t="n">
-        <v>6.785714285714286</v>
+        <v>6.79</v>
       </c>
       <c r="E8" t="n">
-        <v>6.878306878306878</v>
+        <v>6.88</v>
       </c>
       <c r="F8" t="n">
-        <v>7.080851063829787</v>
+        <v>7.08</v>
       </c>
       <c r="G8" t="n">
-        <v>7.160142348754448</v>
+        <v>7.16</v>
       </c>
       <c r="H8" t="n">
-        <v>7.314641744548287</v>
+        <v>7.31</v>
       </c>
       <c r="I8" t="n">
-        <v>7.351800554016621</v>
+        <v>7.35</v>
       </c>
     </row>
   </sheetData>
